--- a/PdfTableExtractionScript/output/page_10_table_1.xlsx
+++ b/PdfTableExtractionScript/output/page_10_table_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="81">
   <si>
     <t>PRODUCT NUMBER</t>
   </si>
@@ -121,7 +121,10 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C4, C10</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C10</t>
   </si>
   <si>
     <t>c28</t>
@@ -130,7 +133,10 @@
     <t>C26D</t>
   </si>
   <si>
-    <t>€3,C4,C10,C10B,C26D</t>
+    <t>€3</t>
+  </si>
+  <si>
+    <t>C10B</t>
   </si>
   <si>
     <t>C28</t>
@@ -142,13 +148,7 @@
     <t>C32D</t>
   </si>
   <si>
-    <t>C10B</t>
-  </si>
-  <si>
     <t>C32</t>
-  </si>
-  <si>
-    <t>C4</t>
   </si>
   <si>
     <t>C26</t>
@@ -614,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,7 +673,7 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -687,32 +687,32 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -726,455 +726,525 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
